--- a/data/trans_orig/P14C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A928FF98-6E10-47B4-A1F2-905BCD8BC336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F6A9F0-F6AD-4499-8381-38584ECE1977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA2A1767-544E-4C69-9756-33D79D8500CF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B244EF6-BC2E-4826-A7F7-BE7B787FFC95}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
   <si>
     <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
   </si>
@@ -113,10 +113,10 @@
     <t>46,3%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -131,10 +131,10 @@
     <t>53,7%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,382 +149,367 @@
     <t>75,33%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>16,13%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>20,31%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439C26E7-3412-41E4-9896-09C8997A5971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B887E9-C9CA-4D93-B359-3DB96370DD9D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1482,10 +1467,10 @@
         <v>6595</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>17</v>
@@ -1497,13 +1482,13 @@
         <v>16283</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,13 +1503,13 @@
         <v>3172</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1533,13 +1518,13 @@
         <v>940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1548,13 +1533,13 @@
         <v>4111</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1590,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1605,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1646,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1658,13 @@
         <v>27173</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1688,13 +1673,13 @@
         <v>13058</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -1703,13 +1688,13 @@
         <v>40231</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1709,13 @@
         <v>7317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1739,13 +1724,13 @@
         <v>8611</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1754,13 +1739,13 @@
         <v>15928</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1760,13 @@
         <v>1086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1790,13 +1775,13 @@
         <v>1089</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1805,13 +1790,13 @@
         <v>2175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1852,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1864,13 @@
         <v>37886</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -1894,13 +1879,13 @@
         <v>43829</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -1909,13 +1894,13 @@
         <v>81716</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1915,13 @@
         <v>16578</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1945,13 +1930,13 @@
         <v>13665</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -1960,13 +1945,13 @@
         <v>30243</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1966,13 @@
         <v>6816</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1996,13 +1981,13 @@
         <v>3388</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2011,13 +1996,13 @@
         <v>10203</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2085,13 +2070,13 @@
         <v>150516</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>144</v>
@@ -2100,13 +2085,13 @@
         <v>172370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>304</v>
@@ -2115,13 +2100,13 @@
         <v>322887</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2121,13 @@
         <v>23052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -2151,13 +2136,13 @@
         <v>21036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2166,13 +2151,13 @@
         <v>44088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2172,13 @@
         <v>7263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2202,13 +2187,13 @@
         <v>5683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2217,13 +2202,13 @@
         <v>12946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2276,13 @@
         <v>227594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -2306,13 +2291,13 @@
         <v>236760</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -2321,13 +2306,13 @@
         <v>464354</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2327,13 @@
         <v>50119</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -2357,13 +2342,13 @@
         <v>48008</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -2372,13 +2357,13 @@
         <v>98127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2378,13 @@
         <v>16096</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2408,13 +2393,13 @@
         <v>10160</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -2423,13 +2408,13 @@
         <v>26256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2470,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F6A9F0-F6AD-4499-8381-38584ECE1977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A852B688-3190-4F50-B263-442B95C410A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B244EF6-BC2E-4826-A7F7-BE7B787FFC95}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{647B95D5-0233-49E9-A206-F7D0F656CAC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="162">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la diabetes en 2016 (Tasa respuesta: 8,36%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -113,79 +113,85 @@
     <t>46,3%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>50,22%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -203,73 +209,70 @@
     <t>76,38%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>57,38%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>34,35%</t>
   </si>
   <si>
     <t>68,97%</t>
   </si>
   <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>18,06%</t>
+    <t>15,6%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>24,25%</t>
+    <t>24,71%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>12,69%</t>
+    <t>12,02%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -278,64 +281,64 @@
     <t>61,82%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>5,56%</t>
@@ -344,16 +347,16 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>14,83%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,61 +365,61 @@
     <t>83,24%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>88,44%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>2,85%</t>
@@ -425,91 +428,97 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>20,31%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B887E9-C9CA-4D93-B359-3DB96370DD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21318EF7-3810-4626-9E7F-9CEAA57337D8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,10 +1476,10 @@
         <v>6595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>17</v>
@@ -1482,13 +1491,13 @@
         <v>16283</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,13 +1512,13 @@
         <v>3172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1518,13 +1527,13 @@
         <v>940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1533,13 +1542,13 @@
         <v>4111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1575,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1590,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,7 +1655,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1658,13 +1667,13 @@
         <v>27173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1673,13 +1682,13 @@
         <v>13058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -1688,13 +1697,13 @@
         <v>40231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1718,13 @@
         <v>7317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1724,13 +1733,13 @@
         <v>8611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1739,13 +1748,13 @@
         <v>15928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,13 +1769,13 @@
         <v>1086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1775,13 +1784,13 @@
         <v>1089</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1790,13 +1799,13 @@
         <v>2175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,7 +1861,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1864,13 +1873,13 @@
         <v>37886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -1879,13 +1888,13 @@
         <v>43829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -1894,13 +1903,13 @@
         <v>81716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1924,13 @@
         <v>16578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1930,13 +1939,13 @@
         <v>13665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -1945,13 +1954,13 @@
         <v>30243</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1975,13 @@
         <v>6816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1981,13 +1990,13 @@
         <v>3388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -1996,13 +2005,13 @@
         <v>10203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2070,13 +2079,13 @@
         <v>150516</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>144</v>
@@ -2085,13 +2094,13 @@
         <v>172370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>304</v>
@@ -2100,13 +2109,13 @@
         <v>322887</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2130,13 @@
         <v>23052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -2136,13 +2145,13 @@
         <v>21036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2151,13 +2160,13 @@
         <v>44088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2181,13 @@
         <v>7263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2187,13 +2196,13 @@
         <v>5683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2202,13 +2211,13 @@
         <v>12946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2285,13 @@
         <v>227594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -2291,13 +2300,13 @@
         <v>236760</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -2306,13 +2315,13 @@
         <v>464354</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2336,13 @@
         <v>50119</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -2342,13 +2351,13 @@
         <v>48008</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -2357,13 +2366,13 @@
         <v>98127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2387,13 @@
         <v>16096</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2393,13 +2402,13 @@
         <v>10160</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -2408,13 +2417,13 @@
         <v>26256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,7 +2479,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
